--- a/medicine/Pharmacie/Classe_ATC_D09/Classe_ATC_D09.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_D09/Classe_ATC_D09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D09, dénommée « Pansements médicamenteux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD09[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D09, dénommée « Pansements médicamenteux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD09. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D09AA Pansements avec anti-infectieux
-D09AA01 Framycétine
+          <t>D09AA Pansements avec anti-infectieux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D09AA01 Framycétine
 D09AA02 Acide fusidique
 D09AA03 Nitrofural (en)
 D09AA04 Nitrate phénylmercurique
@@ -526,12 +543,80 @@
 D09AA10 Clioquinol (en)
 D09AA11 Benzalkonium
 D09AA12 Chlorhexidine
-D09AA13 Iodoforme
-D09AB Pansements à base de zinc
-D09AB01 Pansements à base de zinc sans adjuvant
-D09AB02 Pansements à base de zinc avec adjuvant
-D09AX Pansements à base de paraffine
-Groupe vide</t>
+D09AA13 Iodoforme</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D09A Pansements médicamenteux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D09AB Pansements à base de zinc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D09AB01 Pansements à base de zinc sans adjuvant
+D09AB02 Pansements à base de zinc avec adjuvant</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D09A Pansements médicamenteux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D09AX Pansements à base de paraffine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Groupe vide</t>
         </is>
       </c>
     </row>
